--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/20/seed4/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.34679999999999</v>
+        <v>-12.54149999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -555,16 +555,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.83900000000001</v>
+        <v>-21.99880000000001</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-13.2392</v>
+        <v>-13.4183</v>
       </c>
       <c r="D9" t="n">
-        <v>-9.107099999999996</v>
+        <v>-8.917199999999999</v>
       </c>
     </row>
     <row r="10">
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.0824</v>
+        <v>-12.78449999999999</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.30450000000001</v>
+        <v>-22.3125</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -653,13 +653,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.75850000000001</v>
+        <v>-21.5417</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.8778</v>
+        <v>-13.3833</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.2042</v>
+        <v>-22.1492</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.70089999999999</v>
+        <v>-21.70829999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -746,7 +746,7 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.961400000000003</v>
+        <v>-7.841200000000002</v>
       </c>
     </row>
     <row r="23">
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.4705</v>
+        <v>-12.3123</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.46189999999999</v>
+        <v>-12.8608</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -793,13 +793,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.84169999999998</v>
+        <v>-21.96459999999998</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.87409999999999</v>
+        <v>-13.1154</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.89939999999999</v>
+        <v>-21.8748</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.427799999999998</v>
+        <v>-8.652199999999999</v>
       </c>
     </row>
     <row r="28">
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.16139999999997</v>
+        <v>-20.70749999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -844,7 +844,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.2485</v>
+        <v>-7.214999999999995</v>
       </c>
     </row>
     <row r="30">
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.786599999999993</v>
+        <v>-6.644599999999993</v>
       </c>
     </row>
     <row r="33">
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.3931</v>
+        <v>-11.81300000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -919,13 +919,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-21.90759999999999</v>
+        <v>-21.89059999999998</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.0562</v>
+        <v>-11.94499999999999</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-21.95999999999999</v>
+        <v>-21.88189999999999</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -956,7 +956,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.784600000000001</v>
+        <v>-7.801000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.704600000000003</v>
+        <v>-7.835100000000006</v>
       </c>
     </row>
     <row r="39">
@@ -984,7 +984,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-6.730199999999994</v>
+        <v>-6.841899999999994</v>
       </c>
     </row>
     <row r="40">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.916200000000003</v>
+        <v>-7.839600000000002</v>
       </c>
     </row>
     <row r="42">
@@ -1051,7 +1051,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-11.9865</v>
+        <v>-12.1635</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.35299999999999</v>
+        <v>-21.42149999999998</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
@@ -1068,7 +1068,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.642799999999993</v>
+        <v>-7.60109999999999</v>
       </c>
     </row>
     <row r="46">
@@ -1107,10 +1107,10 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-13.1057</v>
+        <v>-12.8857</v>
       </c>
       <c r="D48" t="n">
-        <v>-8.87859999999999</v>
+        <v>-8.590699999999998</v>
       </c>
     </row>
     <row r="49">
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-14.1494</v>
+        <v>-14.0488</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.554400000000001</v>
+        <v>-8.760199999999999</v>
       </c>
     </row>
     <row r="52">
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.9994</v>
+        <v>-10.8961</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.2326</v>
+        <v>-22.3628</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1222,12 +1222,12 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.777000000000001</v>
+        <v>-9.224800000000004</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.1384</v>
+        <v>-22.39180000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1236,7 +1236,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.341899999999999</v>
+        <v>-7.921199999999994</v>
       </c>
     </row>
     <row r="58">
@@ -1292,7 +1292,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.9628</v>
+        <v>-7.993099999999997</v>
       </c>
     </row>
     <row r="62">
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.001599999999993</v>
+        <v>-7.103799999999995</v>
       </c>
     </row>
     <row r="65">
@@ -1359,7 +1359,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-10.89500000000001</v>
+        <v>-11.019</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.3754</v>
+        <v>-10.5139</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.58019999999998</v>
+        <v>-21.5816</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-10.62040000000001</v>
+        <v>-10.68410000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1488,12 +1488,12 @@
         <v>-14.77</v>
       </c>
       <c r="D75" t="n">
-        <v>-8.948799999999997</v>
+        <v>-8.756299999999996</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.42509999999998</v>
+        <v>-19.61999999999998</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.75409999999999</v>
+        <v>-19.86309999999999</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-10.94640000000001</v>
+        <v>-10.83050000000001</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-11.04240000000001</v>
+        <v>-11.20140000000001</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.09570000000001</v>
+        <v>-22.07710000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1586,12 +1586,12 @@
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.772</v>
+        <v>-8.781200000000005</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.63749999999999</v>
+        <v>-21.56109999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1698,7 +1698,7 @@
         <v>-10.11</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.207299999999996</v>
+        <v>-7.342099999999995</v>
       </c>
     </row>
     <row r="91">
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-13.28299999999999</v>
+        <v>-13.21009999999999</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.50800000000002</v>
+        <v>-21.38970000000001</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.806999999999992</v>
+        <v>-6.90309999999999</v>
       </c>
     </row>
     <row r="94">
@@ -1787,13 +1787,13 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.62010000000001</v>
+        <v>-21.56020000000001</v>
       </c>
       <c r="B97" t="n">
         <v>6.4</v>
       </c>
       <c r="C97" t="n">
-        <v>-10.43330000000001</v>
+        <v>-10.41900000000001</v>
       </c>
       <c r="D97" t="n">
         <v>-6.44</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.8359</v>
+        <v>-11.6729</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1866,7 +1866,7 @@
         <v>-12.7</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.9949</v>
+        <v>-7.954900000000007</v>
       </c>
     </row>
     <row r="103">
@@ -1891,7 +1891,7 @@
         <v>7.61</v>
       </c>
       <c r="C104" t="n">
-        <v>-11.33070000000001</v>
+        <v>-11.41810000000001</v>
       </c>
       <c r="D104" t="n">
         <v>-7.34</v>
@@ -1908,7 +1908,7 @@
         <v>-12</v>
       </c>
       <c r="D105" t="n">
-        <v>-7.983999999999998</v>
+        <v>-8.080099999999998</v>
       </c>
     </row>
   </sheetData>
